--- a/data/trans_camb/P1002-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.086107812672826</v>
+        <v>-6.330399316031962</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.44193072068975</v>
+        <v>-6.624022935640339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.107223109875534</v>
+        <v>-1.546990099878663</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.699598449502852</v>
+        <v>2.362597156944743</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.693054257291928</v>
+        <v>-1.943309734638053</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.578043858715817</v>
+        <v>3.775281469500801</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.35118118557116</v>
+        <v>-1.09250224160436</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.321564488369808</v>
+        <v>-3.401278135284549</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.028242115090884</v>
+        <v>2.077605871933521</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.0919713455738098</v>
+        <v>-0.04625590120768461</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2499962146841104</v>
+        <v>-0.3239565839618207</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.003265065277071</v>
+        <v>6.59623687912069</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.372678453175526</v>
+        <v>9.459786227666314</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.019216165083854</v>
+        <v>4.323111268375854</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.84434977898285</v>
+        <v>10.93737029654671</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.403894803434332</v>
+        <v>3.748258913859325</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.172917373820666</v>
+        <v>1.106136227160978</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.504168263117042</v>
+        <v>7.65931210326581</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4684576663760427</v>
+        <v>-0.479465194576641</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4950545030333898</v>
+        <v>-0.5001452166759826</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1638412570044546</v>
+        <v>-0.1211253284508625</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1785528846333365</v>
+        <v>0.1522588975715291</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1149435324937375</v>
+        <v>-0.1262847441517675</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.236303193970913</v>
+        <v>0.2425071338782782</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09448629267763023</v>
+        <v>-0.07800853489053959</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2373358351784343</v>
+        <v>-0.2466346753108011</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1430455564142283</v>
+        <v>0.1435451609734903</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.001637697450023708</v>
+        <v>-0.006123268726476046</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02977660167069815</v>
+        <v>-0.03103337533762029</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.66825915553842</v>
+        <v>0.7288988894383521</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7716820814435381</v>
+        <v>0.7775775572823483</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3239036682554457</v>
+        <v>0.3545685696394069</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.872277329594785</v>
+        <v>0.8809023969105011</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2972334943058182</v>
+        <v>0.3310082834985746</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1086410424326032</v>
+        <v>0.09526433187173669</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6702179822398755</v>
+        <v>0.6436732475030716</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7079834423007205</v>
+        <v>-0.6710174593732929</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.760127141170902</v>
+        <v>-2.74432893238501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.938779487356761</v>
+        <v>-0.8582728273039339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.201353486703714</v>
+        <v>4.22482008602653</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4592051192224091</v>
+        <v>-0.4291245407033459</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.72821298955983</v>
+        <v>2.359191886796899</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.476965509232466</v>
+        <v>2.687024336220427</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8106955584822257</v>
+        <v>-0.8214173764030613</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.603292102493739</v>
+        <v>1.660149944086654</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.826380878901317</v>
+        <v>4.109972471634159</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.306598832819104</v>
+        <v>1.237656113274529</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.208526681187695</v>
+        <v>3.305778357687466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.65988992578753</v>
+        <v>9.527257688130392</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.292930839101664</v>
+        <v>4.15444194423167</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.134298763180573</v>
+        <v>6.847852912016668</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.047659448089332</v>
+        <v>6.204267405627033</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.311935050770062</v>
+        <v>2.212652151695126</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.603696795258136</v>
+        <v>4.800208279219993</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1294377074591593</v>
+        <v>-0.09923850724634523</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4376482924767371</v>
+        <v>-0.4211566033658652</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1427469296785511</v>
+        <v>-0.1356359765388</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5526049766164983</v>
+        <v>0.5535030314533614</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05586314453304825</v>
+        <v>-0.06042907102290025</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3512794376869063</v>
+        <v>0.3203677194851935</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3718674338677059</v>
+        <v>0.3913850535679368</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1274681359251703</v>
+        <v>-0.1267478321673854</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2357243308410182</v>
+        <v>0.2354413730169233</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8244962443885577</v>
+        <v>0.9065313386239567</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3004780154781239</v>
+        <v>0.2690321858129788</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7098596923218806</v>
+        <v>0.7296288580533314</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.784393865594744</v>
+        <v>1.753127088259437</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.808548882440728</v>
+        <v>0.7462895894481708</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.270452527801393</v>
+        <v>1.269813850267573</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.134559830639082</v>
+        <v>1.156458044328176</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4406738812082661</v>
+        <v>0.406431903671705</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8891349559147612</v>
+        <v>0.8803950014649627</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.452125563466311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7002538431752785</v>
+        <v>0.7002538431752778</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.30720493628582</v>
@@ -1083,7 +1083,7 @@
         <v>1.541748215965309</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.121564014394712</v>
+        <v>1.121564014394714</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.601394870637328</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.906525610272693</v>
+        <v>1.883186185050622</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1317175810970245</v>
+        <v>-0.2850863352754169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8056522203122314</v>
+        <v>-0.748407165593427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.019064716240482</v>
+        <v>0.7268280687212563</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.063940097027143</v>
+        <v>-1.064660064398983</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.025249898292148</v>
+        <v>-1.047532257316823</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.157180265743637</v>
+        <v>1.993499235657116</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1808853477753327</v>
+        <v>0.09278752537033208</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2384885859705073</v>
+        <v>-0.3114420020145295</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.769659799472075</v>
+        <v>5.942220275819222</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.316287886475277</v>
+        <v>3.169154282648146</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.112231037157065</v>
+        <v>2.24011889935079</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.914908298588538</v>
+        <v>5.670886186857644</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.812829008255661</v>
+        <v>4.033764302471086</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.462423018502389</v>
+        <v>3.123425962280357</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.389807789708456</v>
+        <v>5.220730808170166</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.139625290884459</v>
+        <v>3.035358049082757</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.345074268651811</v>
+        <v>2.167089826336903</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5667360086688464</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2732952839070274</v>
+        <v>0.2732952839070271</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5362942336426568</v>
@@ -1188,7 +1188,7 @@
         <v>0.2500089029498204</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1818721020223499</v>
+        <v>0.1818721020223502</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.846238906298282</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.5138241377282385</v>
+        <v>0.6012516671478706</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.07150945331368894</v>
+        <v>-0.1023624652487004</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2541570933391579</v>
+        <v>-0.2386282233046801</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1244929761706606</v>
+        <v>0.09927990631657319</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1461697600843125</v>
+        <v>-0.1517020064481374</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1437149293363054</v>
+        <v>-0.139986895410365</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4397560718261171</v>
+        <v>0.3922159928356639</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03301952761963028</v>
+        <v>0.01837174223231541</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04480192979567987</v>
+        <v>-0.06201037685457617</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.975633079996836</v>
+        <v>3.180338284636893</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.72079828474202</v>
+        <v>1.637334327755385</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.080487099169783</v>
+        <v>1.178006306514397</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.188262045590457</v>
+        <v>1.143170692122852</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7304874484747477</v>
+        <v>0.8237777541061083</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7062636310846219</v>
+        <v>0.6141385946790634</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.403780973756134</v>
+        <v>1.427243989389136</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8338526031422951</v>
+        <v>0.8614835863817977</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6684511830353133</v>
+        <v>0.5902845891555909</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.249633358162869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.830071224958991</v>
+        <v>0.8300712249589902</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.642743039055273</v>
@@ -1306,7 +1306,7 @@
         <v>1.432627768793551</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.159507843817207</v>
+        <v>1.159507843817206</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.06626120048938348</v>
+        <v>-0.5401580652148315</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.848173148584195</v>
+        <v>-1.848543093982872</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9773277032488638</v>
+        <v>-1.313045356812459</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08047785776608342</v>
+        <v>-0.06143713163482548</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.239961259488356</v>
+        <v>-1.398302083497821</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.330663691590841</v>
+        <v>-2.171374235179308</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7896828121224679</v>
+        <v>0.7528240741105036</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6881550401921548</v>
+        <v>-0.7313812515001585</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.5662233129141393</v>
+        <v>-0.5320068217856907</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.798160506163915</v>
+        <v>4.634745489965552</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.308203710443056</v>
+        <v>2.380472734910105</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.823572883290872</v>
+        <v>2.620488029020036</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.543703705438645</v>
+        <v>7.346692003823526</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.660851792997581</v>
+        <v>5.841588271126055</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.869130879216605</v>
+        <v>3.768176239406614</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.12597117944492</v>
+        <v>5.236962183681349</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.469627627483829</v>
+        <v>3.471647152803471</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.921278094338673</v>
+        <v>2.737220783767479</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.09681487465379454</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3219250912199594</v>
+        <v>0.3219250912199592</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6307065508764295</v>
@@ -1411,7 +1411,7 @@
         <v>0.3615892059003852</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2926548888789199</v>
+        <v>0.2926548888789198</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09159331028450185</v>
+        <v>-0.1991210581229302</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5279419631518216</v>
+        <v>-0.5433740524176244</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3063837402368957</v>
+        <v>-0.3655688229114925</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.001745626430075795</v>
+        <v>-0.04227979727879994</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1816493691840474</v>
+        <v>-0.2030465662680072</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2821306077457502</v>
+        <v>-0.2662807594133478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1051284029766754</v>
+        <v>0.1256996648662091</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1357059932040268</v>
+        <v>-0.1548667559792377</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1159298775477332</v>
+        <v>-0.09759268990170621</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.767093299951927</v>
+        <v>2.878260449064882</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.377059377956175</v>
+        <v>1.510529598012881</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.846775299465891</v>
+        <v>1.718232315052809</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.944181789810688</v>
+        <v>1.95575316060935</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.344881174929043</v>
+        <v>1.529419628194647</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.029895227102839</v>
+        <v>1.013989752253289</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.6982491358451</v>
+        <v>1.790080753336592</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.096858173407618</v>
+        <v>1.178778206845673</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.00762813483985</v>
+        <v>0.9504079777410668</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.1976520335482436</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.6096966347585032</v>
+        <v>0.6096966347585026</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.479958462532701</v>
@@ -1511,7 +1511,7 @@
         <v>2.221677597121721</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.367365939570126</v>
+        <v>2.367365939570128</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.613521282607421</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5026981339363977</v>
+        <v>0.5228575701061076</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9249947070566981</v>
+        <v>-0.9947742947491383</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6033626554096008</v>
+        <v>-0.437946905980577</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.830209970181568</v>
+        <v>3.834865336953469</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8242243717146303</v>
+        <v>0.7440288673342582</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9852459085359049</v>
+        <v>0.9947588805476481</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.674879523292524</v>
+        <v>2.583607468722998</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3022889816306416</v>
+        <v>0.2614650025405082</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.544033398888493</v>
+        <v>0.5949447550147767</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.928106811482963</v>
+        <v>3.037758446997963</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.3449357769336</v>
+        <v>1.29616650870844</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.686910024844255</v>
+        <v>1.780848385484861</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.036743660659352</v>
+        <v>6.971273387696226</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.694859342118195</v>
+        <v>3.588397786523359</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.565042588200799</v>
+        <v>3.72773501054284</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.662815648817216</v>
+        <v>4.64591692525053</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.206104841368851</v>
+        <v>2.190665338931728</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.420127057444031</v>
+        <v>2.361314515590341</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.03888485471065201</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1199479946376122</v>
+        <v>0.119947994637612</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6531938087776525</v>
@@ -1616,7 +1616,7 @@
         <v>0.2648169801763822</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2821825722605227</v>
+        <v>0.2821825722605229</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5347426183380554</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.09026867302299831</v>
+        <v>0.09109649994681179</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1606949350827075</v>
+        <v>-0.1800287954511943</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.105476234665966</v>
+        <v>-0.08046066374088558</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4234266356114907</v>
+        <v>0.4101395203324331</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08395127765685347</v>
+        <v>0.07705366358705602</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1015644764626401</v>
+        <v>0.1096143024301504</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3730316159239877</v>
+        <v>0.3536177764325388</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.04399376694410156</v>
+        <v>0.03643081337453503</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.07634494593654877</v>
+        <v>0.07830877511873757</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6505295080531771</v>
+        <v>0.6599122159417804</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3064569679830081</v>
+        <v>0.2777011120653965</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3692945857887907</v>
+        <v>0.3899688781449126</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9176474478743496</v>
+        <v>0.9012931344712545</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4850626679548291</v>
+        <v>0.4559018304408157</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4587691322741563</v>
+        <v>0.482240013407587</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7517845764486403</v>
+        <v>0.7318983369426759</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.347268041322005</v>
+        <v>0.3452035481512374</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.382429473992606</v>
+        <v>0.3752827273912972</v>
       </c>
     </row>
     <row r="34">
